--- a/LINKSFARM Evaluation.xlsx
+++ b/LINKSFARM Evaluation.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Evaluation Date</t>
   </si>
@@ -43,42 +34,6 @@
   </si>
   <si>
     <t>Rating</t>
-  </si>
-  <si>
-    <t>Gamboa</t>
-  </si>
-  <si>
-    <t>Rey Christian</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Calantuan</t>
-  </si>
-  <si>
-    <t>Earle</t>
-  </si>
-  <si>
-    <t>LeBron</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Christopher Jorge</t>
-  </si>
-  <si>
-    <t>Pineda</t>
-  </si>
-  <si>
-    <t>Naguit</t>
-  </si>
-  <si>
-    <t>Lanz</t>
-  </si>
-  <si>
-    <t>Pundavela</t>
   </si>
 </sst>
 </file>
@@ -456,150 +411,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>12345</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43194</v>
       </c>
       <c r="D2" s="1">
+        <v>43191</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>32451</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="C3" s="1">
         <v>43194</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D3" s="1">
         <v>43191</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E3" s="1">
         <v>43220</v>
       </c>
-      <c r="G2" s="3">
-        <v>12345</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4.5</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>21423</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C4" s="1">
         <v>43194</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D4" s="1">
         <v>43191</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E4" s="1">
         <v>43220</v>
       </c>
-      <c r="G3" s="3">
-        <v>32451</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3.8</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>23412</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="C5" s="1">
         <v>43194</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D5" s="1">
         <v>43191</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E5" s="1">
         <v>43220</v>
-      </c>
-      <c r="G4" s="3">
-        <v>21423</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43194</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43191</v>
-      </c>
-      <c r="F5" s="1">
-        <v>43220</v>
-      </c>
-      <c r="G5" s="3">
-        <v>23412</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2.7</v>
       </c>
     </row>
   </sheetData>
